--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H2">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I2">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J2">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>25604.72139401549</v>
+        <v>8917.853881833662</v>
       </c>
       <c r="R2">
-        <v>153628.3283640929</v>
+        <v>53507.12329100197</v>
       </c>
       <c r="S2">
-        <v>0.1535762586652476</v>
+        <v>0.1612552223852169</v>
       </c>
       <c r="T2">
-        <v>0.1190863527659288</v>
+        <v>0.1302259468856601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H3">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I3">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J3">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>6.681359638464001</v>
+        <v>2.483880011526667</v>
       </c>
       <c r="R3">
-        <v>60.13223674617601</v>
+        <v>22.35492010374</v>
       </c>
       <c r="S3">
-        <v>4.00745706341534E-05</v>
+        <v>4.491423933877803E-05</v>
       </c>
       <c r="T3">
-        <v>4.66120333014908E-05</v>
+        <v>5.440753415634254E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H4">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I4">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J4">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>10576.77923212386</v>
+        <v>2903.011901043571</v>
       </c>
       <c r="R4">
-        <v>95191.0130891147</v>
+        <v>26127.10710939213</v>
       </c>
       <c r="S4">
-        <v>0.06343916648034781</v>
+        <v>0.05249310382213368</v>
       </c>
       <c r="T4">
-        <v>0.07378815278137189</v>
+        <v>0.06358830476083215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H5">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I5">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J5">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>164.288717563824</v>
+        <v>133.2348290505108</v>
       </c>
       <c r="R5">
-        <v>985.7323053829441</v>
+        <v>799.4089743030648</v>
       </c>
       <c r="S5">
-        <v>0.000985398208248451</v>
+        <v>0.002409190851597452</v>
       </c>
       <c r="T5">
-        <v>0.0007640990844696458</v>
+        <v>0.001945606196418666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H6">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I6">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J6">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>17386.59963024555</v>
+        <v>1117.776533411696</v>
       </c>
       <c r="R6">
-        <v>156479.39667221</v>
+        <v>10059.98880070527</v>
       </c>
       <c r="S6">
-        <v>0.1042842404349605</v>
+        <v>0.02021195972267019</v>
       </c>
       <c r="T6">
-        <v>0.1212963834934358</v>
+        <v>0.02448405906828649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H7">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I7">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J7">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>7505.17780917608</v>
+        <v>4311.040456842828</v>
       </c>
       <c r="R7">
-        <v>67546.60028258472</v>
+        <v>38799.36411158546</v>
       </c>
       <c r="S7">
-        <v>0.04501580434380744</v>
+        <v>0.07795348486209072</v>
       </c>
       <c r="T7">
-        <v>0.05235934254473826</v>
+        <v>0.09443011732313407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H8">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I8">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J8">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>279.6915370609974</v>
+        <v>97.49718771220124</v>
       </c>
       <c r="R8">
-        <v>1678.149222365984</v>
+        <v>389.988750848805</v>
       </c>
       <c r="S8">
-        <v>0.001677580442339822</v>
+        <v>0.001762972447719849</v>
       </c>
       <c r="T8">
-        <v>0.001300832160426305</v>
+        <v>0.0009491568828665089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H9">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I9">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J9">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
-        <v>0.07298340482533335</v>
+        <v>0.027155784222</v>
       </c>
       <c r="R9">
-        <v>0.6568506434280001</v>
+        <v>0.162934705332</v>
       </c>
       <c r="S9">
-        <v>4.377520100783289E-07</v>
+        <v>4.910387725329242E-07</v>
       </c>
       <c r="T9">
-        <v>5.091635655398872E-07</v>
+        <v>3.96551430488955E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H10">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I10">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J10">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>115.5347716956208</v>
+        <v>31.7380728589155</v>
       </c>
       <c r="R10">
-        <v>1039.812945260587</v>
+        <v>190.428437153493</v>
       </c>
       <c r="S10">
-        <v>0.0006929736789443875</v>
+        <v>0.0005738970457195138</v>
       </c>
       <c r="T10">
-        <v>0.0008060201691215142</v>
+        <v>0.0004634658343974235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H11">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I11">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J11">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>1.794597302197</v>
+        <v>1.45663085646675</v>
       </c>
       <c r="R11">
-        <v>10.767583813182</v>
+        <v>5.826523425866999</v>
       </c>
       <c r="S11">
-        <v>1.07639343244945E-05</v>
+        <v>2.633922194791753E-05</v>
       </c>
       <c r="T11">
-        <v>8.346587495076839E-06</v>
+        <v>1.41806264945028E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H12">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I12">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J12">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>189.9214094156921</v>
+        <v>12.220436659131</v>
       </c>
       <c r="R12">
-        <v>1709.292684741229</v>
+        <v>73.32261995478599</v>
       </c>
       <c r="S12">
-        <v>0.001139142232780159</v>
+        <v>0.0002209734827711077</v>
       </c>
       <c r="T12">
-        <v>0.001324973289775712</v>
+        <v>0.0001784530175509385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H13">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I13">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J13">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>81.9823299407261</v>
+        <v>47.1317792627115</v>
       </c>
       <c r="R13">
-        <v>737.8409694665351</v>
+        <v>282.790675576269</v>
       </c>
       <c r="S13">
-        <v>0.0004917272605785655</v>
+        <v>0.0008522505130860878</v>
       </c>
       <c r="T13">
-        <v>0.0005719439305933601</v>
+        <v>0.0006882575857623822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H14">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I14">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J14">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>43818.46637660826</v>
+        <v>3665.23222351822</v>
       </c>
       <c r="R14">
-        <v>262910.7982596496</v>
+        <v>21991.39334110932</v>
       </c>
       <c r="S14">
-        <v>0.2628216891335245</v>
+        <v>0.06627579293498878</v>
       </c>
       <c r="T14">
-        <v>0.2037976224887333</v>
+        <v>0.05352278061382083</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H15">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I15">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J15">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>11.43409952261733</v>
+        <v>1.020873091018667</v>
       </c>
       <c r="R15">
-        <v>102.906895703556</v>
+        <v>9.187857819168</v>
       </c>
       <c r="S15">
-        <v>6.858134477886133E-05</v>
+        <v>1.845972355015196E-05</v>
       </c>
       <c r="T15">
-        <v>7.976918719545601E-05</v>
+        <v>2.236146162903843E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H16">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I16">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J16">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>18100.49943616845</v>
+        <v>1193.136028684737</v>
       </c>
       <c r="R16">
-        <v>162904.4949255161</v>
+        <v>10738.22425816263</v>
       </c>
       <c r="S16">
-        <v>0.1085661874855975</v>
+        <v>0.0215746319900244</v>
       </c>
       <c r="T16">
-        <v>0.1262768550333956</v>
+        <v>0.02613475245687438</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H17">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I17">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J17">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>281.154383047069</v>
+        <v>54.75942925300134</v>
       </c>
       <c r="R17">
-        <v>1686.926298282414</v>
+        <v>328.556575518008</v>
       </c>
       <c r="S17">
-        <v>0.00168635454341623</v>
+        <v>0.0009901758942101701</v>
       </c>
       <c r="T17">
-        <v>0.001307635788181467</v>
+        <v>0.0007996428983790592</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H18">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I18">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J18">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>29754.43940895721</v>
+        <v>459.4054380391627</v>
       </c>
       <c r="R18">
-        <v>267789.9546806149</v>
+        <v>4134.648942352464</v>
       </c>
       <c r="S18">
-        <v>0.1784661278984852</v>
+        <v>0.008307102477524643</v>
       </c>
       <c r="T18">
-        <v>0.2075797435918815</v>
+        <v>0.01006293256748843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16.64069066666667</v>
+      </c>
+      <c r="H19">
+        <v>49.922072</v>
+      </c>
+      <c r="I19">
+        <v>0.1292049952817353</v>
+      </c>
+      <c r="J19">
+        <v>0.1293531876293031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>106.476041</v>
+      </c>
+      <c r="N19">
+        <v>319.428123</v>
+      </c>
+      <c r="O19">
+        <v>0.2479689906073331</v>
+      </c>
+      <c r="P19">
+        <v>0.3000368088518554</v>
+      </c>
+      <c r="Q19">
+        <v>1771.834861692318</v>
+      </c>
+      <c r="R19">
+        <v>15946.51375523086</v>
+      </c>
+      <c r="S19">
+        <v>0.03203883226143714</v>
+      </c>
+      <c r="T19">
+        <v>0.03881071763111141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>71.221232</v>
+      </c>
+      <c r="H20">
+        <v>213.663696</v>
+      </c>
+      <c r="I20">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J20">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>220.2572175</v>
+      </c>
+      <c r="N20">
+        <v>440.514435</v>
+      </c>
+      <c r="O20">
+        <v>0.5129507012517006</v>
+      </c>
+      <c r="P20">
+        <v>0.4137724133030643</v>
+      </c>
+      <c r="Q20">
+        <v>15686.99038724196</v>
+      </c>
+      <c r="R20">
+        <v>94121.94232345176</v>
+      </c>
+      <c r="S20">
+        <v>0.2836567134837751</v>
+      </c>
+      <c r="T20">
+        <v>0.2290745289207169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>71.221232</v>
+      </c>
+      <c r="H21">
+        <v>213.663696</v>
+      </c>
+      <c r="I21">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J21">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.184044</v>
+      </c>
+      <c r="O21">
+        <v>0.0001428715933923452</v>
+      </c>
+      <c r="P21">
+        <v>0.0001728713612618601</v>
+      </c>
+      <c r="Q21">
+        <v>4.369280140736</v>
+      </c>
+      <c r="R21">
+        <v>39.32352126662401</v>
+      </c>
+      <c r="S21">
+        <v>7.900659173088227E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.570581404599017E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>71.221232</v>
+      </c>
+      <c r="H22">
+        <v>213.663696</v>
+      </c>
+      <c r="I22">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J22">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>71.69991033333334</v>
+      </c>
+      <c r="N22">
+        <v>215.099731</v>
+      </c>
+      <c r="O22">
+        <v>0.1669798597413381</v>
+      </c>
+      <c r="P22">
+        <v>0.202041812311349</v>
+      </c>
+      <c r="Q22">
+        <v>5106.555948229531</v>
+      </c>
+      <c r="R22">
+        <v>45959.00353406578</v>
+      </c>
+      <c r="S22">
+        <v>0.09233822688346047</v>
+      </c>
+      <c r="T22">
+        <v>0.1118552892592451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>71.221232</v>
+      </c>
+      <c r="H23">
+        <v>213.663696</v>
+      </c>
+      <c r="I23">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J23">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.2906945</v>
+      </c>
+      <c r="N23">
+        <v>6.581389</v>
+      </c>
+      <c r="O23">
+        <v>0.007663603810758729</v>
+      </c>
+      <c r="P23">
+        <v>0.006181856922387211</v>
+      </c>
+      <c r="Q23">
+        <v>234.367316425624</v>
+      </c>
+      <c r="R23">
+        <v>1406.203898553744</v>
+      </c>
+      <c r="S23">
+        <v>0.00423789784300319</v>
+      </c>
+      <c r="T23">
+        <v>0.003422427201094983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>186.3809663333333</v>
-      </c>
-      <c r="H19">
-        <v>559.1428989999999</v>
-      </c>
-      <c r="I19">
-        <v>0.6286464319957765</v>
-      </c>
-      <c r="J19">
-        <v>0.6286464319957765</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>68.91226833333333</v>
-      </c>
-      <c r="N19">
-        <v>206.736805</v>
-      </c>
-      <c r="O19">
-        <v>0.1225450231943603</v>
-      </c>
-      <c r="P19">
-        <v>0.1425360923817208</v>
-      </c>
-      <c r="Q19">
-        <v>12843.93516418863</v>
-      </c>
-      <c r="R19">
-        <v>115595.4164776977</v>
-      </c>
-      <c r="S19">
-        <v>0.07703749158997426</v>
-      </c>
-      <c r="T19">
-        <v>0.08960480590638914</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>71.221232</v>
+      </c>
+      <c r="H24">
+        <v>213.663696</v>
+      </c>
+      <c r="I24">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J24">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>27.607354</v>
+      </c>
+      <c r="N24">
+        <v>82.82206199999999</v>
+      </c>
+      <c r="O24">
+        <v>0.06429397299547716</v>
+      </c>
+      <c r="P24">
+        <v>0.07779423725008243</v>
+      </c>
+      <c r="Q24">
+        <v>1966.229764140128</v>
+      </c>
+      <c r="R24">
+        <v>17696.06787726115</v>
+      </c>
+      <c r="S24">
+        <v>0.03555393731251123</v>
+      </c>
+      <c r="T24">
+        <v>0.04306879259675657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>71.221232</v>
+      </c>
+      <c r="H25">
+        <v>213.663696</v>
+      </c>
+      <c r="I25">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J25">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>106.476041</v>
+      </c>
+      <c r="N25">
+        <v>319.428123</v>
+      </c>
+      <c r="O25">
+        <v>0.2479689906073331</v>
+      </c>
+      <c r="P25">
+        <v>0.3000368088518554</v>
+      </c>
+      <c r="Q25">
+        <v>7583.354818502513</v>
+      </c>
+      <c r="R25">
+        <v>68250.19336652262</v>
+      </c>
+      <c r="S25">
+        <v>0.1371244229707192</v>
+      </c>
+      <c r="T25">
+        <v>0.1661077163118476</v>
       </c>
     </row>
   </sheetData>
